--- a/2.xlsx
+++ b/2.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdan\OneDrive\Desktop\Weightlifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0DC148-6E53-4358-B0CC-0445C779501E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69414E65-9001-4FF5-B38B-48EB05298C9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{DB016B62-A7F1-47A4-973B-42268A6C4056}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEEK 1 (4.22)" sheetId="1" r:id="rId1"/>
-    <sheet name="WEEK 2 (4.29)" sheetId="2" r:id="rId2"/>
-    <sheet name="WEEK 3 (5.6)" sheetId="3" r:id="rId3"/>
-    <sheet name="WEEK 4 (5.13)" sheetId="4" r:id="rId4"/>
+    <sheet name="WEEK 1 (5.20)" sheetId="1" r:id="rId1"/>
+    <sheet name="WEEK 2 (5.27)" sheetId="2" r:id="rId2"/>
+    <sheet name="WEEK 3 (6.3)" sheetId="3" r:id="rId3"/>
+    <sheet name="WEEK 4 (6.10)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>Nittany Barbell Club Programming</t>
   </si>
@@ -60,148 +65,142 @@
     <t>Week 4</t>
   </si>
   <si>
-    <t>4.22.19 - 5.17.19</t>
-  </si>
-  <si>
-    <t>A) Muscle Snatch from hip x 5 x 5</t>
-  </si>
-  <si>
-    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1 x5(OTM), 75% x1 x 4 (OTM), 80% x1 x 3(OTM)</t>
-  </si>
-  <si>
-    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5 x 3 (5 second eccentic on the first rep of each set)</t>
-  </si>
-  <si>
-    <t>C) Push Press @ 60-70% x 5 x5</t>
-  </si>
-  <si>
-    <t>A) Muscle clean from the ground x 5 x 5</t>
-  </si>
-  <si>
-    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1 x5(OTM), 75% x1 x 4 (OTM), 80% x1 x 3(OTM)</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1 x 2</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1 x 2</t>
-  </si>
-  <si>
     <t>D) Stiff Legged Deadlifts x 5 x 3</t>
   </si>
   <si>
-    <t xml:space="preserve">D) Floating Clean Deadlift @ 85% x 3 x 3  </t>
-  </si>
-  <si>
-    <t>https://www.catalystathletics.com/exercise/325/Floating-Clean-Deadlift/</t>
-  </si>
-  <si>
-    <t>1 rep = J + JB</t>
-  </si>
-  <si>
-    <t>10 Good mornings (standing, staggers, seated)</t>
-  </si>
-  <si>
-    <t>Max Effort Perfect Pushups</t>
-  </si>
-  <si>
-    <t>10-20 strict pullups, do what you need to to hit this range</t>
-  </si>
-  <si>
-    <t>12-15 reverse hypers</t>
-  </si>
-  <si>
-    <t>20 russian twists</t>
-  </si>
-  <si>
-    <t>0:45 plank</t>
-  </si>
-  <si>
-    <t>8 split squats/leg at 3010</t>
-  </si>
-  <si>
-    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 73% 1 x5(OTM), 78% x1 x 4 (OTM), 83% x1 x 3(OTM)</t>
-  </si>
-  <si>
-    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 2 (5 second eccentic on the first rep of each set)</t>
-  </si>
-  <si>
-    <t>C) Push Press @ 60-70% x 5 x2, 65-75% x 5 x 3</t>
-  </si>
-  <si>
-    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 73% 1 x5(OTM), 78% x1 x 4 (OTM), 83% x1 x 3(OTM)</t>
-  </si>
-  <si>
-    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2 x 2</t>
-  </si>
-  <si>
-    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1, 85% x 1 x 2</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1, 85% x 1</t>
-  </si>
-  <si>
-    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 75% x 3, 80% x 3 x 2</t>
-  </si>
-  <si>
-    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 75% x 3 x 3</t>
-  </si>
-  <si>
-    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x4(OTM), 80% x1 x 3 (OTM), 85% x1 x 2(OTM)</t>
-  </si>
-  <si>
-    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x4(OTM), 80% x1 x 3 (OTM), 85% x1 x 2(OTM)</t>
-  </si>
-  <si>
-    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2 x 3</t>
-  </si>
-  <si>
-    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 3 (5 second eccentic on the first rep of each set)</t>
-  </si>
-  <si>
-    <t>C) Push Press @ 60-70% x 5, 65-75% x 5 x 4, increase if feeling good</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1,80% x 1, 85% x 1, 90% x 1</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1,80% x 1, 85% x 1, 90% x 1</t>
-  </si>
-  <si>
-    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 3 x 3 - go up during the 3 set if feeling good</t>
-  </si>
-  <si>
-    <t>C) Jerk + Jerk Balance @ 50% x 3, 60% x 3, 70% x 3</t>
-  </si>
-  <si>
-    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x5(OTM)</t>
-  </si>
-  <si>
-    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 3  - no eccentric work</t>
-  </si>
-  <si>
-    <t>C) Push Press @ 70% x 3 x 3</t>
-  </si>
-  <si>
-    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x5(OTM)</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1,80% x 1 x 3</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1,80% x 1 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C) Front Squat @ 50% x 2, 60% x 2, 70% x 2, 75% x 2, 80% x 2 x 2 </t>
-  </si>
-  <si>
-    <t>15 hammer curls</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>A) Tall Snatch + OHS  x 5 x 3</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 2, 78% x5(OTM), 83% x1 x 4 (OTM), 88 % x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 2, 78% x5(OTM), 83% x1 x 4 (OTM), 88 % x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>C) Push Press (3 sec hold in dip) + Split Jerk ( 3 hold in dip) + Split Jerk @ 50%, 60%, 70% x 2 sets</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1 - if it feels good, go up for 1 or 2 sets</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1 - if it feels good, go up for 1 or 2 sets</t>
+  </si>
+  <si>
+    <t>A) Tall Clean + Drop Jerk x 3 x 3</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% 1 4(OTM), 85% x1 x 3 (OTM), 90% x1 x 2(OTM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) BS @ 50% x 5, 60% x 5, 70% x 3, 80% x 3 x 5 </t>
+  </si>
+  <si>
+    <t>D) DB bench press x 5 x 2, 3 x 5 - challenging</t>
+  </si>
+  <si>
+    <t>C) BS @ 50% x 5, 60% x 5, 70% x 3, 80% x 3, 85% x 3 x 2</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 2, 80% x4(OTM), 85% x1 x 3 (OTM), 90 % x1 x 2(OTM)</t>
+  </si>
+  <si>
+    <t>C) Push Press (3 sec hold in dip) + Split Jerk ( 3 hold in dip) + Split Jerk @ 50% x 1 , 60% x 1, 70% x 2 sets, 75% x 1 set</t>
+  </si>
+  <si>
+    <t>D) Clean Pulls @ 80% x 3, 90% x 3, 95% x 3 x 3</t>
+  </si>
+  <si>
+    <t>D) Clean Pulls @ 80% x 3, 90% x 3, 95% x 3 x 2</t>
+  </si>
+  <si>
+    <t>A) Power Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 2, 85% x 2 x 2 </t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 2, 85% x 2 x2, 90% x 2</t>
+  </si>
+  <si>
+    <t>B) Power Clean + Power Jerk @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80 % 1, 82% x 1 x3(OTM), 87% x1 x 2 (OTM), 92% x1 </t>
+  </si>
+  <si>
+    <t>C) BS @ 50% x 5, 60% x 5, 70% x 3, 80% x 3, 85% x 3 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Clean @ 50% x 2, 60% x 2, 70% x 2, 80 % 1, 82% x 1 x3(OTM), 87% x1 x 2 (OTM), 92% x1 </t>
+  </si>
+  <si>
+    <t>C) Split Jerk ( 3 hold in dip) + Split Jerk @ 50% x 1 , 60% x 1, 70% x 1, 75% x 1, 80% x 1</t>
+  </si>
+  <si>
+    <t>D) Clean Pulls @ 80% x 3, 90% x 3, 95% x 3, 100% x 3 , 95% x 3</t>
+  </si>
+  <si>
+    <t>B) Power Clean + Hang Clean + Power Jerk @ 50%, 60%, 70% x 2, 80% x 1</t>
+  </si>
+  <si>
+    <t>A) Snatch + Hang Snatch @ 50% x 2, 60% x 2, 70% x 1 x 2, 75% x 1 x 2</t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 2, 85% x 2, 90% x 2 x 2</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t>C) BS @ 50% x 5, 60% x 5, 70% x 3, 80% x 3 x 2</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Split Jerk ( 3 hold in dip) + Split Jerk @ 50% x 1 , 60% x 1, 70% x 1 x 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) Clean Pulls @ 80% x 3, 90% x 3 x 2 </t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 2 x 2</t>
+  </si>
+  <si>
+    <t>B) Power Clean + Hang Clean + Power Jerk @ 50%, 60%, 70% x 2, 80% x 2</t>
+  </si>
+  <si>
+    <t>A) Snatch + Hang Snatch @ 50% x 2, 60% x 2, 70% x 1 x 2, 75% x 1 x 3</t>
+  </si>
+  <si>
+    <t>5.20.19-6.14.19</t>
+  </si>
+  <si>
+    <t>GHR x 10</t>
+  </si>
+  <si>
+    <t>DB pull overs x 15</t>
+  </si>
+  <si>
+    <t>:30 banded clamshell plank/side</t>
+  </si>
+  <si>
+    <t>Russian KBS x 20</t>
+  </si>
+  <si>
+    <t>DB skullcrushers x 15</t>
+  </si>
+  <si>
+    <t>Twisting mountain climbers x 20</t>
+  </si>
+  <si>
+    <t>Seated DB press x 15</t>
+  </si>
+  <si>
+    <t>Candle stick to levers x 6-8</t>
+  </si>
+  <si>
+    <t>E) 2 sets</t>
   </si>
 </sst>
 </file>
@@ -301,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,9 +328,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0513CF5E-46EF-4A40-9FA9-CD59AED7D9AF}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E22"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +672,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -721,17 +717,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -754,11 +750,11 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -768,48 +764,43 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
-      <c r="C16" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
@@ -827,42 +818,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
@@ -893,9 +884,6 @@
       <c r="E25" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{8BE6E72D-2D90-4485-8906-0F3937E4B79C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -905,7 +893,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E22"/>
+      <selection activeCell="A18" sqref="A18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,7 +916,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -979,11 +967,11 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1002,15 +990,15 @@
     </row>
     <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1020,48 +1008,46 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
@@ -1079,42 +1065,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
@@ -1145,19 +1131,16 @@
       <c r="E25" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{0F7083BE-35FC-4C7E-AC2C-6ED4D325404A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE72F6DE-074E-40C2-901C-47F33DBE05CF}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,15 +1163,15 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -1231,11 +1214,11 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1254,15 +1237,15 @@
     </row>
     <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1274,46 +1257,44 @@
     </row>
     <row r="12" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
@@ -1331,42 +1312,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
@@ -1382,20 +1363,24 @@
       <c r="D23" s="3"/>
       <c r="E23" s="10"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{4F1143C6-27A1-43EB-AA07-63E915F30525}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623301C-375C-46E1-9941-A94C2DF8A823}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,15 +1403,15 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -1469,11 +1454,11 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1490,17 +1475,17 @@
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1510,101 +1495,99 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
@@ -1613,10 +1596,21 @@
       <c r="D22" s="3"/>
       <c r="E22" s="10"/>
     </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{AA2D55D6-67A0-4439-B430-5DE0F480836A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>